--- a/interconnect/production_v1/BOM.xlsx
+++ b/interconnect/production_v1/BOM.xlsx
@@ -52,16 +52,16 @@
     <t xml:space="preserve">TOP</t>
   </si>
   <si>
-    <t xml:space="preserve">71430-0101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VHDCI Plug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONN VHDCI RCPT 68POS R/A SOLDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23-0714300101-ND </t>
+    <t xml:space="preserve">2-5174225-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONN D-TYPE CAP 68POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68 Position D-Type Cap, Male Pins Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A33476-ND</t>
   </si>
   <si>
     <t xml:space="preserve">J25</t>
@@ -172,32 +172,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,56 +218,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A5:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="34.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="18.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="45.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="10" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="45.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="10" style="2" width="8.53"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -271,25 +275,25 @@
       <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -297,35 +301,35 @@
       <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
